--- a/Config/HeroAttribute.xlsx
+++ b/Config/HeroAttribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD3B452-9F77-47DB-AB39-9D90D42E027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED4C74-1FC5-497E-BE19-4A7C10133829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,6 +687,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/HeroAttribute.xlsx
+++ b/Config/HeroAttribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED4C74-1FC5-497E-BE19-4A7C10133829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617D95E-ED73-4DDA-8DF4-A8B87385C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="8010" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +619,7 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D6">
         <v>50</v>

--- a/Config/HeroAttribute.xlsx
+++ b/Config/HeroAttribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F617D95E-ED73-4DDA-8DF4-A8B87385C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9986B732-2FEA-49C4-BDB5-F089C86A54B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="8010" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -70,71 +70,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbilityPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicResist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArmorPenetrationNum</t>
-  </si>
-  <si>
-    <t>ArmorPenetrationPercent</t>
-  </si>
-  <si>
-    <t>MagicPenetrationNum</t>
-  </si>
-  <si>
-    <t>MagicPenetrationPercent</t>
-  </si>
-  <si>
-    <t>护甲穿透固定值</t>
-  </si>
-  <si>
-    <t>护甲穿透百分比</t>
-  </si>
-  <si>
-    <t>法穿固定值</t>
-  </si>
-  <si>
-    <t>法穿百分比</t>
-  </si>
-  <si>
     <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HudunBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooldownReduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能急速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,24 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="23.25" customWidth="1"/>
-    <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="13" max="13" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,37 +460,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,28 +495,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,34 +515,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -628,28 +544,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -666,28 +567,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -704,24 +590,9 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
         <v>0</v>
       </c>
     </row>

--- a/Config/HeroAttribute.xlsx
+++ b/Config/HeroAttribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9986B732-2FEA-49C4-BDB5-F089C86A54B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E0BB58-7DFC-4F86-8DCA-1A7C3DE722D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2910" windowWidth="43200" windowHeight="23055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,6 +117,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -561,7 +562,7 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -584,7 +585,7 @@
         <v>50</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
